--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_3_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_3_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.35000000000052</v>
+        <v>25.8100000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.528706402237737e-16</v>
+        <v>1.617811329144126e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>52.25587365435078</v>
+        <v>56.97737745753237</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.01212787235616, 60.4996194363454]</t>
+          <t>[48.56294177379726, 65.39181314126748]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 1.8176582119868874]</t>
+          <t>[1.5786581702723472, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.56170042586114</v>
+        <v>63.14094216745298</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.302028912719024, 59.82137193900326]</t>
+          <t>[58.02249330656345, 68.25939102834252]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.67627627627666</v>
+        <v>18.70514514514558</v>
       </c>
       <c r="X2" t="n">
-        <v>18.01651651651689</v>
+        <v>18.0850850850855</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.33603603603644</v>
+        <v>19.32520520520566</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6100000000001</v>
+        <v>22.25000000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.528706402237737e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.617811329144126e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8838852037910726</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>54.84480915989529</v>
+        <v>56.19481504622792</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.39238785689885, 65.29723046289173]</t>
+          <t>[44.02295907535071, 68.36667101710512]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.71073714069354</v>
+        <v>-2.352263568453619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.9245792832802335, -1.4968949981068471]</t>
+          <t>[-2.5661057110403114, -2.1384214258669267]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>56.7644192452771</v>
+        <v>56.3525245650068</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.26982399726978, 63.259014493284425]</t>
+          <t>[49.98085550088737, 62.72419362912622]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.156076076076101</v>
+        <v>8.329829829829844</v>
       </c>
       <c r="X3" t="n">
-        <v>5.386566566566586</v>
+        <v>7.572572572572587</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.925585585585615</v>
+        <v>9.087087087087102</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_3_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_3_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8100000000006</v>
+        <v>25.88000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.617811329144126e-16</v>
+        <v>1.748382715945128e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>56.97737745753237</v>
+        <v>52.3611065248969</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[48.56294177379726, 65.39181314126748]</t>
+          <t>[44.31162789186931, 60.41058515792449]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.729605565039425</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723472, 1.8805529598065034]</t>
+          <t>[1.603816069400195, 1.9308687580621955]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.14094216745298</v>
+        <v>54.09063542172783</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.02249330656345, 68.25939102834252]</t>
+          <t>[49.23858529955523, 58.94268554390043]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.70514514514558</v>
+        <v>18.60044044044087</v>
       </c>
       <c r="X2" t="n">
-        <v>18.0850850850855</v>
+        <v>17.9268868868873</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.32520520520566</v>
+        <v>19.27399399399444</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.25000000000004</v>
+        <v>22.6400000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,32 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.617811329144126e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8838852037910726</v>
-      </c>
+        <v>1.748382715945128e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.19481504622792</v>
+        <v>47.00345093201899</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.02295907535071, 68.36667101710512]</t>
+          <t>[38.27364018696521, 55.73326167707276]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.352263568453619</v>
+        <v>-1.547210796362541</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.5661057110403114, -2.1384214258669267]</t>
+          <t>[-1.7484739893853103, -1.3459476033397717]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>56.3525245650068</v>
+        <v>53.53507993264674</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.98085550088737, 62.72419362912622]</t>
+          <t>[47.70125406345109, 59.36890580184239]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.329829829829844</v>
+        <v>5.57501501501504</v>
       </c>
       <c r="X3" t="n">
-        <v>7.572572572572587</v>
+        <v>4.849809809809833</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.087087087087102</v>
+        <v>6.300220220220248</v>
       </c>
     </row>
   </sheetData>
